--- a/excelData/excel.xlsx
+++ b/excelData/excel.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\ex\AutomationForLeaveSystem\excelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD05F0-3C31-42A1-B3E8-C06DCDD9EF77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C028373E-6299-49E6-8959-08CFFE12C080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20760" windowHeight="11820" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEEEFAA-6AB8-42F4-9ACD-AD465C7A150B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -504,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5C1088-3CE4-4ADC-8DC3-2E939FAC7C26}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
